--- a/ferma2.xlsx
+++ b/ferma2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="536" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="540" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,8 +13,9 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$1:$U$255</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$1:$U$253</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$1:$U$255</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet2!$A$1:$U$255</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -348,18 +349,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>   სქესი</t>
+    <t>სქესი</t>
   </si>
   <si>
     <t>დაბ.თარიღი</t>
   </si>
   <si>
-    <t>    ასაკი</t>
+    <t>ასაკი</t>
   </si>
   <si>
     <t>დაგრილება</t>
@@ -383,9 +384,6 @@
     <t>დაკვლა</t>
   </si>
   <si>
-    <t>ფური </t>
-  </si>
-  <si>
     <t>ფური</t>
   </si>
   <si>
@@ -401,7 +399,7 @@
     <t>ასიკი</t>
   </si>
   <si>
-    <t>   4 წ. 8 თვე</t>
+    <t>4 წ. 8 თვე</t>
   </si>
   <si>
     <t>დამაკება</t>
@@ -417,9 +415,6 @@
   </si>
   <si>
     <t>ვეტერინარია</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>საფურე</t>
@@ -450,13 +445,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="D\-MMM"/>
-    <numFmt numFmtId="167" formatCode="M/D/YYYY\ H:MM"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="167" formatCode="D\-MMM"/>
+    <numFmt numFmtId="168" formatCode="M/D/YYYY\ H:MM"/>
+    <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="170" formatCode="MMM\-YY"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -848,7 +844,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1013,11 +1009,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1121,10 +1121,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1237,7 +1233,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1249,7 +1245,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1273,10 +1269,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1289,7 +1281,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1297,7 +1289,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1389,12 +1381,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M166" activeCellId="0" sqref="M166"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.4234693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.1479591836735"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="3" width="21.1377551020408"/>
@@ -1407,7 +1399,7 @@
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.7040816326531"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="4" width="12.4183673469388"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,7 +1438,7 @@
       </c>
       <c r="M1" s="8" t="n">
         <f aca="true">NOW()</f>
-        <v>41965.5866564504</v>
+        <v>41967.9045705461</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
@@ -1476,7 +1468,7 @@
         <v>41264</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="15" t="n">
         <v>1</v>
@@ -1511,7 +1503,7 @@
         <v>41930</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="23" t="n">
         <v>1</v>
@@ -1560,7 +1552,7 @@
         <v>7784</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="34" t="n">
         <v>40261</v>
@@ -1571,7 +1563,7 @@
         <v>41281</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="36" t="n">
         <v>1</v>
@@ -1651,11 +1643,11 @@
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="37"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="37"/>
       <c r="F8" s="38" t="n">
         <v>41565</v>
@@ -1664,12 +1656,12 @@
         <v>41837</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="41" t="n">
+      <c r="J8" s="42" t="n">
         <v>51376</v>
       </c>
       <c r="K8" s="40" t="n">
@@ -1715,18 +1707,18 @@
         <v>7797</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="34" t="n">
         <v>40266</v>
       </c>
       <c r="E10" s="35"/>
-      <c r="F10" s="42"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="34" t="n">
         <v>41271</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="36" t="n">
         <v>1</v>
@@ -1790,7 +1782,7 @@
         <v>41841</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="39" t="n">
         <v>1</v>
@@ -1839,7 +1831,7 @@
         <v>7806</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="34" t="n">
         <v>40311</v>
@@ -1957,7 +1949,7 @@
         <v>7807</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="34" t="n">
         <v>40246</v>
@@ -1968,7 +1960,7 @@
         <v>41280</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="36" t="n">
         <v>1</v>
@@ -2048,13 +2040,13 @@
         <v>7829</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="34" t="n">
         <v>40207</v>
       </c>
       <c r="E21" s="35"/>
-      <c r="F21" s="43"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="34" t="n">
         <v>41290</v>
       </c>
@@ -2090,12 +2082,12 @@
         <v>41707</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="41" t="n">
+      <c r="J22" s="42" t="n">
         <v>51370</v>
       </c>
       <c r="K22" s="40" t="n">
@@ -2164,7 +2156,7 @@
         <v>7835</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="34" t="n">
         <v>40272</v>
@@ -2175,7 +2167,7 @@
         <v>41269</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="36" t="n">
         <v>1</v>
@@ -2255,7 +2247,7 @@
         <v>7842</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="34" t="n">
         <v>40287</v>
@@ -2266,7 +2258,7 @@
         <v>41273</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="36" t="n">
         <v>1</v>
@@ -2301,12 +2293,12 @@
         <v>41786</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="41" t="n">
+      <c r="J29" s="42" t="n">
         <v>51378</v>
       </c>
       <c r="K29" s="40" t="n">
@@ -2352,7 +2344,7 @@
         <v>5704</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="34" t="n">
         <v>40433</v>
@@ -2365,12 +2357,12 @@
         <v>41476</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="44" t="n">
+      <c r="J31" s="45" t="n">
         <v>46034</v>
       </c>
       <c r="K31" s="16" t="n">
@@ -2445,13 +2437,13 @@
         <v>5751</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="34" t="n">
         <v>40471</v>
       </c>
       <c r="E34" s="35"/>
-      <c r="F34" s="43"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="34" t="n">
         <v>41315</v>
       </c>
@@ -2532,7 +2524,7 @@
         <v>5686</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="34" t="n">
         <v>40423</v>
@@ -2574,12 +2566,12 @@
         <v>41759</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="J38" s="41" t="n">
+      <c r="J38" s="42" t="n">
         <v>51373</v>
       </c>
       <c r="K38" s="40" t="n">
@@ -2625,7 +2617,7 @@
         <v>5784</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="34" t="n">
         <v>40512</v>
@@ -2799,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="34" t="n">
         <v>40176</v>
@@ -2810,7 +2802,7 @@
         <v>41305</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="36" t="n">
         <v>1</v>
@@ -2874,7 +2866,7 @@
         <v>41905</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="39" t="n">
         <v>1</v>
@@ -2923,7 +2915,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="34" t="n">
         <v>40187</v>
@@ -2934,7 +2926,7 @@
         <v>41275</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" s="36" t="n">
         <v>1</v>
@@ -2969,12 +2961,12 @@
         <v>41784</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="J51" s="41" t="n">
+      <c r="J51" s="42" t="n">
         <v>51366</v>
       </c>
       <c r="K51" s="40" t="n">
@@ -3019,8 +3011,8 @@
       <c r="B53" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="C53" s="45" t="s">
-        <v>12</v>
+      <c r="C53" s="46" t="s">
+        <v>11</v>
       </c>
       <c r="D53" s="34" t="n">
         <v>40199</v>
@@ -3031,7 +3023,7 @@
         <v>41426</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="36" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="20"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="45"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
       <c r="F54" s="38" t="n">
@@ -3085,7 +3077,7 @@
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="20"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="45"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
@@ -3111,18 +3103,18 @@
         <v>100</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" s="34" t="n">
         <v>40252</v>
       </c>
       <c r="E56" s="35"/>
-      <c r="F56" s="43"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="34" t="n">
         <v>41272</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="36" t="n">
         <v>1</v>
@@ -3157,12 +3149,12 @@
         <v>41778</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="J57" s="41" t="n">
+      <c r="J57" s="42" t="n">
         <v>51369</v>
       </c>
       <c r="K57" s="40" t="n">
@@ -3208,7 +3200,7 @@
         <v>144</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="34" t="n">
         <v>40280</v>
@@ -3219,7 +3211,7 @@
         <v>41327</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" s="36" t="n">
         <v>1</v>
@@ -3283,7 +3275,7 @@
         <v>41839</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I61" s="39" t="n">
         <v>1</v>
@@ -3332,7 +3324,7 @@
         <v>153</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="34" t="n">
         <v>40292</v>
@@ -3343,7 +3335,7 @@
         <v>41303</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="36" t="n">
         <v>1</v>
@@ -3423,20 +3415,20 @@
         <v>164</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" s="34" t="n">
         <v>40323</v>
       </c>
       <c r="E66" s="35"/>
-      <c r="F66" s="46" t="n">
+      <c r="F66" s="47" t="n">
         <v>40972</v>
       </c>
       <c r="G66" s="34" t="n">
         <v>41278</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I66" s="36" t="n">
         <v>1</v>
@@ -3471,12 +3463,12 @@
         <v>41792</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I67" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="J67" s="41" t="n">
+      <c r="J67" s="42" t="n">
         <v>51375</v>
       </c>
       <c r="K67" s="40" t="n">
@@ -3522,7 +3514,7 @@
         <v>6139</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="34" t="n">
         <v>40479</v>
@@ -3580,7 +3572,7 @@
         <v>6164</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" s="34" t="n">
         <v>40506</v>
@@ -3593,12 +3585,12 @@
         <v>41769</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J71" s="44" t="n">
+      <c r="J71" s="45" t="n">
         <v>51367</v>
       </c>
       <c r="K71" s="16" t="n">
@@ -3644,7 +3636,7 @@
         <v>6171</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" s="34" t="n">
         <v>40946</v>
@@ -3657,12 +3649,12 @@
         <v>41788</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I73" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J73" s="44" t="n">
+      <c r="J73" s="45" t="n">
         <v>51368</v>
       </c>
       <c r="K73" s="16" t="n">
@@ -3708,7 +3700,7 @@
         <v>69</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75" s="34" t="n">
         <v>40438</v>
@@ -3795,7 +3787,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" s="34" t="n">
         <v>40446</v>
@@ -3882,7 +3874,7 @@
         <v>91</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="34" t="n">
         <v>40448</v>
@@ -3953,7 +3945,7 @@
         <v>41847</v>
       </c>
       <c r="H83" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I83" s="39" t="n">
         <v>1</v>
@@ -4002,7 +3994,7 @@
         <v>110</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="34" t="n">
         <v>40484</v>
@@ -4015,7 +4007,7 @@
         <v>41524</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I85" s="36" t="n">
         <v>1</v>
@@ -4038,7 +4030,7 @@
       <c r="U85" s="28"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="47"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="29"/>
@@ -4061,12 +4053,12 @@
       <c r="U86" s="28"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="48"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="11" t="n">
         <v>1478</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" s="34" t="n">
         <v>40436</v>
@@ -4079,7 +4071,7 @@
         <v>41475</v>
       </c>
       <c r="H87" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I87" s="36" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="40"/>
-      <c r="K88" s="41" t="n">
+      <c r="K88" s="42" t="n">
         <v>401</v>
       </c>
       <c r="L88" s="26"/>
@@ -4159,7 +4151,7 @@
         <v>1487</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" s="34" t="n">
         <v>40451</v>
@@ -4172,7 +4164,7 @@
         <v>41472</v>
       </c>
       <c r="H90" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I90" s="36" t="n">
         <v>1</v>
@@ -4274,12 +4266,12 @@
       <c r="U93" s="28"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="48"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="11" t="n">
         <v>1491</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94" s="34" t="n">
         <v>40457</v>
@@ -4292,7 +4284,7 @@
         <v>41455</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I94" s="36" t="n">
         <v>1</v>
@@ -4300,7 +4292,7 @@
       <c r="J94" s="16" t="n">
         <v>46024</v>
       </c>
-      <c r="K94" s="44" t="n">
+      <c r="K94" s="45" t="n">
         <v>401</v>
       </c>
       <c r="L94" s="17"/>
@@ -4356,7 +4348,7 @@
         <v>41885</v>
       </c>
       <c r="H96" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I96" s="39" t="n">
         <v>1</v>
@@ -4405,7 +4397,7 @@
         <v>1492</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" s="34" t="n">
         <v>40469</v>
@@ -4418,7 +4410,7 @@
         <v>41461</v>
       </c>
       <c r="H98" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I98" s="36" t="n">
         <v>1</v>
@@ -4469,7 +4461,7 @@
         <v>1493</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" s="34" t="n">
         <v>40471</v>
@@ -4482,7 +4474,7 @@
         <v>41468</v>
       </c>
       <c r="H100" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I100" s="36" t="n">
         <v>1</v>
@@ -4505,7 +4497,7 @@
       <c r="U100" s="28"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="47"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="11"/>
       <c r="C101" s="12"/>
       <c r="D101" s="37"/>
@@ -4534,12 +4526,12 @@
       <c r="U101" s="28"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="49"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
-      <c r="F102" s="50"/>
+      <c r="F102" s="51"/>
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
       <c r="I102" s="30"/>
@@ -4562,7 +4554,7 @@
         <v>1497</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" s="34" t="n">
         <v>40480</v>
@@ -4575,7 +4567,7 @@
         <v>41457</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I103" s="36" t="n">
         <v>1</v>
@@ -4610,7 +4602,7 @@
         <v>41457</v>
       </c>
       <c r="H104" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I104" s="39" t="n">
         <v>1</v>
@@ -4639,16 +4631,16 @@
       <c r="D105" s="29"/>
       <c r="E105" s="29"/>
       <c r="F105" s="29"/>
-      <c r="G105" s="50" t="n">
+      <c r="G105" s="51" t="n">
         <v>41938</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I105" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="J105" s="51"/>
+      <c r="J105" s="52"/>
       <c r="K105" s="31" t="n">
         <v>401</v>
       </c>
@@ -4669,7 +4661,7 @@
         <v>2241</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" s="34" t="n">
         <v>40600</v>
@@ -4735,7 +4727,7 @@
       <c r="C108" s="12"/>
       <c r="D108" s="29"/>
       <c r="E108" s="29"/>
-      <c r="F108" s="50"/>
+      <c r="F108" s="51"/>
       <c r="G108" s="29"/>
       <c r="H108" s="29"/>
       <c r="I108" s="30"/>
@@ -4758,7 +4750,7 @@
         <v>3175</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" s="34" t="n">
         <v>40430</v>
@@ -4822,14 +4814,14 @@
       <c r="C111" s="12"/>
       <c r="D111" s="29"/>
       <c r="E111" s="29"/>
-      <c r="F111" s="50" t="n">
+      <c r="F111" s="51" t="n">
         <v>41426</v>
       </c>
-      <c r="G111" s="50" t="n">
+      <c r="G111" s="51" t="n">
         <v>41695</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I111" s="30" t="n">
         <v>1</v>
@@ -4852,12 +4844,12 @@
       <c r="U111" s="28"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="48"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="11" t="n">
         <v>3195</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112" s="34" t="n">
         <v>40439</v>
@@ -4870,7 +4862,7 @@
         <v>41470</v>
       </c>
       <c r="H112" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I112" s="36" t="n">
         <v>1</v>
@@ -4878,7 +4870,7 @@
       <c r="J112" s="16" t="n">
         <v>46021</v>
       </c>
-      <c r="K112" s="44" t="n">
+      <c r="K112" s="45" t="n">
         <v>401</v>
       </c>
       <c r="L112" s="17"/>
@@ -4927,7 +4919,7 @@
       <c r="C114" s="12"/>
       <c r="D114" s="29"/>
       <c r="E114" s="29"/>
-      <c r="F114" s="50"/>
+      <c r="F114" s="51"/>
       <c r="G114" s="29"/>
       <c r="H114" s="29"/>
       <c r="I114" s="30"/>
@@ -4950,7 +4942,7 @@
         <v>3201</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D115" s="34" t="n">
         <v>40442</v>
@@ -4963,7 +4955,7 @@
         <v>41454</v>
       </c>
       <c r="H115" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I115" s="36" t="n">
         <v>1</v>
@@ -4991,7 +4983,7 @@
       <c r="C116" s="12"/>
       <c r="D116" s="37"/>
       <c r="E116" s="37"/>
-      <c r="F116" s="52" t="n">
+      <c r="F116" s="53" t="n">
         <v>41639</v>
       </c>
       <c r="G116" s="37"/>
@@ -5047,7 +5039,7 @@
       <c r="C118" s="12"/>
       <c r="D118" s="29"/>
       <c r="E118" s="29"/>
-      <c r="F118" s="50"/>
+      <c r="F118" s="51"/>
       <c r="G118" s="29"/>
       <c r="H118" s="29"/>
       <c r="I118" s="30"/>
@@ -5070,7 +5062,7 @@
         <v>3207</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" s="34" t="n">
         <v>40444</v>
@@ -5136,8 +5128,8 @@
       <c r="C121" s="12"/>
       <c r="D121" s="29"/>
       <c r="E121" s="29"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
       <c r="H121" s="29"/>
       <c r="I121" s="30"/>
       <c r="J121" s="31"/>
@@ -5159,7 +5151,7 @@
         <v>3228</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122" s="34" t="n">
         <v>40461</v>
@@ -5230,7 +5222,7 @@
         <v>41504</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I124" s="39" t="n">
         <v>1</v>
@@ -5287,7 +5279,7 @@
       <c r="C126" s="12"/>
       <c r="D126" s="29"/>
       <c r="E126" s="29"/>
-      <c r="F126" s="50"/>
+      <c r="F126" s="51"/>
       <c r="G126" s="29"/>
       <c r="H126" s="29"/>
       <c r="I126" s="30"/>
@@ -5305,12 +5297,12 @@
       <c r="U126" s="28"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="48"/>
+      <c r="A127" s="49"/>
       <c r="B127" s="11" t="n">
         <v>3234</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" s="34" t="n">
         <v>40469</v>
@@ -5323,7 +5315,7 @@
         <v>41456</v>
       </c>
       <c r="H127" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I127" s="36" t="n">
         <v>1</v>
@@ -5331,7 +5323,7 @@
       <c r="J127" s="16" t="n">
         <v>46014</v>
       </c>
-      <c r="K127" s="44" t="n">
+      <c r="K127" s="45" t="n">
         <v>9891</v>
       </c>
       <c r="L127" s="17"/>
@@ -5374,7 +5366,7 @@
         <v>3254</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D129" s="34" t="n">
         <v>40539</v>
@@ -5387,7 +5379,7 @@
         <v>41456</v>
       </c>
       <c r="H129" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I129" s="36" t="n">
         <v>1</v>
@@ -5469,7 +5461,7 @@
         <v>764</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D132" s="34" t="n">
         <v>40481</v>
@@ -5521,7 +5513,7 @@
         <v>766</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D134" s="34" t="n">
         <v>40482</v>
@@ -5565,7 +5557,7 @@
         <v>41858</v>
       </c>
       <c r="H135" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I135" s="39" t="n">
         <v>1</v>
@@ -5614,7 +5606,7 @@
         <v>771</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D137" s="34" t="n">
         <v>40491</v>
@@ -5676,10 +5668,10 @@
       <c r="C139" s="12"/>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
-      <c r="F139" s="50" t="n">
+      <c r="F139" s="51" t="n">
         <v>41521</v>
       </c>
-      <c r="G139" s="50" t="n">
+      <c r="G139" s="51" t="n">
         <v>41770</v>
       </c>
       <c r="H139" s="29"/>
@@ -5707,7 +5699,7 @@
         <v>1680</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D140" s="34" t="n">
         <v>40446</v>
@@ -5720,7 +5712,7 @@
         <v>41475</v>
       </c>
       <c r="H140" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I140" s="36" t="n">
         <v>1</v>
@@ -5755,7 +5747,7 @@
         <v>41878</v>
       </c>
       <c r="H141" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I141" s="39" t="n">
         <v>1</v>
@@ -5804,7 +5796,7 @@
         <v>1694</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D143" s="34" t="n">
         <v>40460</v>
@@ -5817,7 +5809,7 @@
         <v>41583</v>
       </c>
       <c r="H143" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I143" s="36" t="n">
         <v>1</v>
@@ -5843,15 +5835,15 @@
       <c r="A144" s="20"/>
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
-      <c r="D144" s="53"/>
-      <c r="E144" s="54"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="53"/>
-      <c r="H144" s="54"/>
-      <c r="I144" s="55"/>
-      <c r="J144" s="56"/>
-      <c r="K144" s="56"/>
-      <c r="L144" s="57"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="54"/>
+      <c r="G144" s="54"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="56"/>
+      <c r="J144" s="57"/>
+      <c r="K144" s="57"/>
+      <c r="L144" s="58"/>
       <c r="M144" s="27"/>
       <c r="N144" s="28"/>
       <c r="O144" s="28"/>
@@ -5891,7 +5883,7 @@
         <v>1696</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D146" s="34" t="n">
         <v>40461</v>
@@ -5904,7 +5896,7 @@
         <v>41459</v>
       </c>
       <c r="H146" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I146" s="36" t="n">
         <v>1</v>
@@ -5961,7 +5953,7 @@
       <c r="C148" s="12"/>
       <c r="D148" s="29"/>
       <c r="E148" s="29"/>
-      <c r="F148" s="50"/>
+      <c r="F148" s="51"/>
       <c r="G148" s="29"/>
       <c r="H148" s="29"/>
       <c r="I148" s="30"/>
@@ -5984,7 +5976,7 @@
         <v>1733</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149" s="34" t="n">
         <v>40512</v>
@@ -6017,15 +6009,15 @@
       <c r="A150" s="20"/>
       <c r="B150" s="11"/>
       <c r="C150" s="12"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="58"/>
-      <c r="G150" s="59"/>
-      <c r="H150" s="59"/>
-      <c r="I150" s="60"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="60"/>
+      <c r="H150" s="60"/>
+      <c r="I150" s="61"/>
       <c r="J150" s="25"/>
       <c r="K150" s="25"/>
-      <c r="L150" s="61"/>
+      <c r="L150" s="62"/>
       <c r="M150" s="27"/>
       <c r="N150" s="28"/>
       <c r="O150" s="28"/>
@@ -6040,15 +6032,15 @@
       <c r="A151" s="20"/>
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
-      <c r="D151" s="62"/>
-      <c r="E151" s="63"/>
-      <c r="F151" s="62"/>
-      <c r="G151" s="63"/>
-      <c r="H151" s="63"/>
-      <c r="I151" s="64"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="64"/>
+      <c r="F151" s="63"/>
+      <c r="G151" s="64"/>
+      <c r="H151" s="64"/>
+      <c r="I151" s="65"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32"/>
-      <c r="L151" s="65"/>
+      <c r="L151" s="66"/>
       <c r="M151" s="27"/>
       <c r="N151" s="28"/>
       <c r="O151" s="28"/>
@@ -6065,7 +6057,7 @@
         <v>1756</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D152" s="34" t="n">
         <v>40584</v>
@@ -6115,7 +6107,7 @@
       <c r="A154" s="20"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
-      <c r="D154" s="50"/>
+      <c r="D154" s="51"/>
       <c r="E154" s="29"/>
       <c r="F154" s="29"/>
       <c r="G154" s="29"/>
@@ -6140,7 +6132,7 @@
         <v>1673</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D155" s="34" t="n">
         <v>40441</v>
@@ -6153,7 +6145,7 @@
         <v>41509</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I155" s="36" t="n">
         <v>1</v>
@@ -6208,7 +6200,7 @@
       <c r="C157" s="12"/>
       <c r="D157" s="29"/>
       <c r="E157" s="29"/>
-      <c r="F157" s="50"/>
+      <c r="F157" s="51"/>
       <c r="G157" s="29"/>
       <c r="H157" s="29"/>
       <c r="I157" s="30"/>
@@ -6231,7 +6223,7 @@
         <v>1711</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D158" s="34" t="n">
         <v>40487</v>
@@ -6259,7 +6251,7 @@
       <c r="B159" s="11"/>
       <c r="C159" s="12"/>
       <c r="D159" s="38"/>
-      <c r="E159" s="66"/>
+      <c r="E159" s="67"/>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
       <c r="H159" s="37"/>
@@ -6281,8 +6273,8 @@
       <c r="A160" s="20"/>
       <c r="B160" s="11"/>
       <c r="C160" s="12"/>
-      <c r="D160" s="50"/>
-      <c r="E160" s="67"/>
+      <c r="D160" s="51"/>
+      <c r="E160" s="68"/>
       <c r="F160" s="29"/>
       <c r="G160" s="29"/>
       <c r="H160" s="29"/>
@@ -6306,12 +6298,12 @@
         <v>1744</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D161" s="34" t="n">
         <v>40564</v>
       </c>
-      <c r="E161" s="43"/>
+      <c r="E161" s="44"/>
       <c r="F161" s="34" t="n">
         <v>41501</v>
       </c>
@@ -6370,7 +6362,7 @@
       <c r="C163" s="12"/>
       <c r="D163" s="29"/>
       <c r="E163" s="29"/>
-      <c r="F163" s="50" t="n">
+      <c r="F163" s="51" t="n">
         <v>41693</v>
       </c>
       <c r="G163" s="29"/>
@@ -6394,12 +6386,12 @@
       <c r="U163" s="28"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="48"/>
+      <c r="A164" s="49"/>
       <c r="B164" s="11" t="n">
         <v>1672</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D164" s="34" t="n">
         <v>40441</v>
@@ -6412,15 +6404,15 @@
         <v>41459</v>
       </c>
       <c r="H164" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I164" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J164" s="44" t="n">
+      <c r="J164" s="45" t="n">
         <v>46026</v>
       </c>
-      <c r="K164" s="44" t="n">
+      <c r="K164" s="45" t="n">
         <v>401</v>
       </c>
       <c r="L164" s="17"/>
@@ -6469,7 +6461,7 @@
       <c r="C166" s="12"/>
       <c r="D166" s="29"/>
       <c r="E166" s="29"/>
-      <c r="F166" s="50"/>
+      <c r="F166" s="51"/>
       <c r="G166" s="29"/>
       <c r="H166" s="29"/>
       <c r="I166" s="30"/>
@@ -6487,12 +6479,12 @@
       <c r="U166" s="28"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="48"/>
+      <c r="A167" s="49"/>
       <c r="B167" s="11" t="n">
         <v>1704</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D167" s="34" t="n">
         <v>40485</v>
@@ -6522,7 +6514,7 @@
       <c r="U167" s="28"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="48"/>
+      <c r="A168" s="49"/>
       <c r="B168" s="11"/>
       <c r="C168" s="12"/>
       <c r="D168" s="37"/>
@@ -6536,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="40"/>
-      <c r="K168" s="41" t="n">
+      <c r="K168" s="42" t="n">
         <v>9891</v>
       </c>
       <c r="L168" s="26"/>
@@ -6551,17 +6543,17 @@
       <c r="U168" s="28"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="48"/>
+      <c r="A169" s="49"/>
       <c r="B169" s="11"/>
       <c r="C169" s="12"/>
       <c r="D169" s="29"/>
       <c r="E169" s="29"/>
-      <c r="F169" s="50"/>
+      <c r="F169" s="51"/>
       <c r="G169" s="29"/>
       <c r="H169" s="29"/>
       <c r="I169" s="30"/>
       <c r="J169" s="31"/>
-      <c r="K169" s="68"/>
+      <c r="K169" s="31"/>
       <c r="L169" s="33"/>
       <c r="M169" s="27"/>
       <c r="N169" s="28"/>
@@ -6579,7 +6571,7 @@
         <v>9038</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D170" s="34" t="n">
         <v>40793</v>
@@ -6645,7 +6637,7 @@
       <c r="C172" s="12"/>
       <c r="D172" s="29"/>
       <c r="E172" s="29"/>
-      <c r="F172" s="50"/>
+      <c r="F172" s="51"/>
       <c r="G172" s="29"/>
       <c r="H172" s="29"/>
       <c r="I172" s="30"/>
@@ -6668,7 +6660,7 @@
         <v>9058</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D173" s="34" t="n">
         <v>40806</v>
@@ -6695,7 +6687,7 @@
       <c r="A174" s="20"/>
       <c r="B174" s="11"/>
       <c r="C174" s="12"/>
-      <c r="D174" s="50"/>
+      <c r="D174" s="51"/>
       <c r="E174" s="29"/>
       <c r="F174" s="29"/>
       <c r="G174" s="29"/>
@@ -6720,7 +6712,7 @@
         <v>9059</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D175" s="34" t="n">
         <v>40806</v>
@@ -6753,9 +6745,9 @@
       <c r="A176" s="20"/>
       <c r="B176" s="11"/>
       <c r="C176" s="12"/>
-      <c r="D176" s="50"/>
+      <c r="D176" s="51"/>
       <c r="E176" s="29"/>
-      <c r="F176" s="50"/>
+      <c r="F176" s="51"/>
       <c r="G176" s="29"/>
       <c r="H176" s="29"/>
       <c r="I176" s="30"/>
@@ -6778,7 +6770,7 @@
         <v>9060</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D177" s="34" t="n">
         <v>40806</v>
@@ -6813,9 +6805,9 @@
       <c r="A178" s="20"/>
       <c r="B178" s="11"/>
       <c r="C178" s="12"/>
-      <c r="D178" s="50"/>
-      <c r="E178" s="67"/>
-      <c r="F178" s="50"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="68"/>
+      <c r="F178" s="51"/>
       <c r="G178" s="29"/>
       <c r="H178" s="29"/>
       <c r="I178" s="30"/>
@@ -6838,12 +6830,12 @@
         <v>9065</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D179" s="34" t="n">
         <v>40814</v>
       </c>
-      <c r="E179" s="43"/>
+      <c r="E179" s="44"/>
       <c r="F179" s="34" t="n">
         <v>41500</v>
       </c>
@@ -6851,7 +6843,7 @@
         <v>41782</v>
       </c>
       <c r="H179" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I179" s="36" t="n">
         <v>1</v>
@@ -6875,10 +6867,10 @@
       <c r="A180" s="20"/>
       <c r="B180" s="11"/>
       <c r="C180" s="12"/>
-      <c r="D180" s="50"/>
-      <c r="E180" s="67"/>
-      <c r="F180" s="50"/>
-      <c r="G180" s="50"/>
+      <c r="D180" s="51"/>
+      <c r="E180" s="68"/>
+      <c r="F180" s="51"/>
+      <c r="G180" s="51"/>
       <c r="H180" s="29"/>
       <c r="I180" s="30"/>
       <c r="J180" s="31"/>
@@ -6900,7 +6892,7 @@
         <v>9070</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D181" s="34" t="n">
         <v>40821</v>
@@ -6927,7 +6919,7 @@
       <c r="A182" s="20"/>
       <c r="B182" s="11"/>
       <c r="C182" s="12"/>
-      <c r="D182" s="50"/>
+      <c r="D182" s="51"/>
       <c r="E182" s="29"/>
       <c r="F182" s="29"/>
       <c r="G182" s="29"/>
@@ -6952,7 +6944,7 @@
         <v>9079</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D183" s="34" t="n">
         <v>40838</v>
@@ -6975,11 +6967,11 @@
       <c r="T183" s="28"/>
       <c r="U183" s="28"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="20"/>
       <c r="B184" s="11"/>
       <c r="C184" s="12"/>
-      <c r="D184" s="50"/>
+      <c r="D184" s="51"/>
       <c r="E184" s="29"/>
       <c r="F184" s="29"/>
       <c r="G184" s="29"/>
@@ -6998,13 +6990,13 @@
       <c r="T184" s="28"/>
       <c r="U184" s="28"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="20"/>
       <c r="B185" s="11" t="n">
         <v>9086</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D185" s="34" t="n">
         <v>40848</v>
@@ -7015,7 +7007,7 @@
       </c>
       <c r="G185" s="35"/>
       <c r="H185" s="35"/>
-      <c r="I185" s="39"/>
+      <c r="I185" s="30"/>
       <c r="J185" s="16"/>
       <c r="K185" s="16" t="n">
         <v>401</v>
@@ -7035,9 +7027,9 @@
       <c r="A186" s="20"/>
       <c r="B186" s="11"/>
       <c r="C186" s="12"/>
-      <c r="D186" s="50"/>
+      <c r="D186" s="51"/>
       <c r="E186" s="29"/>
-      <c r="F186" s="50"/>
+      <c r="F186" s="51"/>
       <c r="G186" s="29"/>
       <c r="H186" s="29"/>
       <c r="I186" s="30"/>
@@ -7060,7 +7052,7 @@
         <v>3008</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D187" s="34" t="n">
         <v>40783</v>
@@ -7124,7 +7116,7 @@
       <c r="C189" s="12"/>
       <c r="D189" s="29"/>
       <c r="E189" s="29"/>
-      <c r="F189" s="50" t="n">
+      <c r="F189" s="51" t="n">
         <v>41687</v>
       </c>
       <c r="G189" s="29"/>
@@ -7153,7 +7145,7 @@
         <v>2995</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D190" s="34" t="n">
         <v>40785</v>
@@ -7180,7 +7172,7 @@
       <c r="A191" s="20"/>
       <c r="B191" s="11"/>
       <c r="C191" s="12"/>
-      <c r="D191" s="50"/>
+      <c r="D191" s="51"/>
       <c r="E191" s="29"/>
       <c r="F191" s="29"/>
       <c r="G191" s="29"/>
@@ -7205,7 +7197,7 @@
         <v>3006</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D192" s="34" t="n">
         <v>40787</v>
@@ -7247,12 +7239,12 @@
         <v>41790</v>
       </c>
       <c r="H193" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I193" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="J193" s="41" t="n">
+      <c r="J193" s="42" t="n">
         <v>51365</v>
       </c>
       <c r="K193" s="40" t="n">
@@ -7275,8 +7267,8 @@
       <c r="C194" s="12"/>
       <c r="D194" s="29"/>
       <c r="E194" s="29"/>
-      <c r="F194" s="50"/>
-      <c r="G194" s="50"/>
+      <c r="F194" s="51"/>
+      <c r="G194" s="51"/>
       <c r="H194" s="29"/>
       <c r="I194" s="30"/>
       <c r="J194" s="31"/>
@@ -7298,7 +7290,7 @@
         <v>3016</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D195" s="34" t="n">
         <v>40789</v>
@@ -7325,7 +7317,7 @@
       <c r="A196" s="20"/>
       <c r="B196" s="11"/>
       <c r="C196" s="12"/>
-      <c r="D196" s="50"/>
+      <c r="D196" s="51"/>
       <c r="E196" s="29"/>
       <c r="F196" s="29"/>
       <c r="G196" s="29"/>
@@ -7350,7 +7342,7 @@
         <v>3020</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D197" s="34" t="n">
         <v>40792</v>
@@ -7377,7 +7369,7 @@
       <c r="A198" s="20"/>
       <c r="B198" s="11"/>
       <c r="C198" s="12"/>
-      <c r="D198" s="50"/>
+      <c r="D198" s="51"/>
       <c r="E198" s="29"/>
       <c r="F198" s="29"/>
       <c r="G198" s="29"/>
@@ -7402,7 +7394,7 @@
         <v>3025</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D199" s="34" t="n">
         <v>40798</v>
@@ -7432,12 +7424,12 @@
       <c r="U199" s="28"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="47"/>
+      <c r="A200" s="48"/>
       <c r="B200" s="11"/>
       <c r="C200" s="12"/>
-      <c r="D200" s="50"/>
+      <c r="D200" s="51"/>
       <c r="E200" s="29"/>
-      <c r="F200" s="50"/>
+      <c r="F200" s="51"/>
       <c r="G200" s="29"/>
       <c r="H200" s="29"/>
       <c r="I200" s="30"/>
@@ -7455,12 +7447,12 @@
       <c r="U200" s="28"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="47"/>
+      <c r="A201" s="48"/>
       <c r="B201" s="11" t="n">
         <v>3027</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D201" s="34" t="n">
         <v>40801</v>
@@ -7492,13 +7484,13 @@
       <c r="U201" s="28"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="49"/>
+      <c r="A202" s="50"/>
       <c r="B202" s="11"/>
       <c r="C202" s="12"/>
-      <c r="D202" s="50"/>
+      <c r="D202" s="51"/>
       <c r="E202" s="29"/>
-      <c r="F202" s="50"/>
-      <c r="G202" s="50"/>
+      <c r="F202" s="51"/>
+      <c r="G202" s="51"/>
       <c r="H202" s="29"/>
       <c r="I202" s="30"/>
       <c r="J202" s="31"/>
@@ -7520,7 +7512,7 @@
         <v>3041</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D203" s="34" t="n">
         <v>40815</v>
@@ -7553,9 +7545,9 @@
       <c r="A204" s="71"/>
       <c r="B204" s="11"/>
       <c r="C204" s="12"/>
-      <c r="D204" s="50"/>
+      <c r="D204" s="51"/>
       <c r="E204" s="29"/>
-      <c r="F204" s="50"/>
+      <c r="F204" s="51"/>
       <c r="G204" s="29"/>
       <c r="H204" s="29"/>
       <c r="I204" s="30"/>
@@ -7578,7 +7570,7 @@
         <v>3040</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D205" s="34" t="n">
         <v>40817</v>
@@ -7605,7 +7597,7 @@
       <c r="A206" s="20"/>
       <c r="B206" s="11"/>
       <c r="C206" s="12"/>
-      <c r="D206" s="50"/>
+      <c r="D206" s="51"/>
       <c r="E206" s="29"/>
       <c r="F206" s="29"/>
       <c r="G206" s="29"/>
@@ -7630,7 +7622,7 @@
         <v>3043</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D207" s="34" t="n">
         <v>40846</v>
@@ -7663,9 +7655,9 @@
       <c r="A208" s="20"/>
       <c r="B208" s="11"/>
       <c r="C208" s="12"/>
-      <c r="D208" s="50"/>
+      <c r="D208" s="51"/>
       <c r="E208" s="29"/>
-      <c r="F208" s="50"/>
+      <c r="F208" s="51"/>
       <c r="G208" s="29"/>
       <c r="H208" s="29"/>
       <c r="I208" s="30"/>
@@ -7688,7 +7680,7 @@
         <v>2315</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D209" s="34" t="n">
         <v>40807</v>
@@ -7715,7 +7707,7 @@
       <c r="A210" s="20"/>
       <c r="B210" s="11"/>
       <c r="C210" s="12"/>
-      <c r="D210" s="50"/>
+      <c r="D210" s="51"/>
       <c r="E210" s="29"/>
       <c r="F210" s="29"/>
       <c r="G210" s="29"/>
@@ -7740,7 +7732,7 @@
         <v>2319</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D211" s="34" t="n">
         <v>40809</v>
@@ -7767,7 +7759,7 @@
       <c r="A212" s="20"/>
       <c r="B212" s="11"/>
       <c r="C212" s="12"/>
-      <c r="D212" s="50"/>
+      <c r="D212" s="51"/>
       <c r="E212" s="29"/>
       <c r="F212" s="29"/>
       <c r="G212" s="29"/>
@@ -7792,7 +7784,7 @@
         <v>2324</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D213" s="34" t="n">
         <v>40812</v>
@@ -7834,7 +7826,7 @@
         <v>41886</v>
       </c>
       <c r="H214" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I214" s="39" t="n">
         <v>1</v>
@@ -7860,8 +7852,8 @@
       <c r="C215" s="12"/>
       <c r="D215" s="29"/>
       <c r="E215" s="29"/>
-      <c r="F215" s="50"/>
-      <c r="G215" s="50"/>
+      <c r="F215" s="51"/>
+      <c r="G215" s="51"/>
       <c r="H215" s="29"/>
       <c r="I215" s="30"/>
       <c r="J215" s="31"/>
@@ -7883,7 +7875,7 @@
         <v>2353</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D216" s="34" t="n">
         <v>40837</v>
@@ -7910,7 +7902,7 @@
       <c r="A217" s="20"/>
       <c r="B217" s="11"/>
       <c r="C217" s="12"/>
-      <c r="D217" s="50"/>
+      <c r="D217" s="51"/>
       <c r="E217" s="29"/>
       <c r="F217" s="29"/>
       <c r="G217" s="29"/>
@@ -7935,7 +7927,7 @@
         <v>8956</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D218" s="34" t="n">
         <v>40783</v>
@@ -7962,7 +7954,7 @@
       <c r="A219" s="20"/>
       <c r="B219" s="11"/>
       <c r="C219" s="12"/>
-      <c r="D219" s="50"/>
+      <c r="D219" s="51"/>
       <c r="E219" s="29"/>
       <c r="F219" s="29"/>
       <c r="G219" s="29"/>
@@ -7987,7 +7979,7 @@
         <v>3755</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D220" s="34" t="n">
         <v>40821</v>
@@ -8014,7 +8006,7 @@
       <c r="A221" s="20"/>
       <c r="B221" s="11"/>
       <c r="C221" s="12"/>
-      <c r="D221" s="50"/>
+      <c r="D221" s="51"/>
       <c r="E221" s="29"/>
       <c r="F221" s="29"/>
       <c r="G221" s="29"/>
@@ -8039,7 +8031,7 @@
         <v>3756</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D222" s="34" t="n">
         <v>40822</v>
@@ -8072,9 +8064,9 @@
       <c r="A223" s="20"/>
       <c r="B223" s="11"/>
       <c r="C223" s="12"/>
-      <c r="D223" s="50"/>
+      <c r="D223" s="51"/>
       <c r="E223" s="29"/>
-      <c r="F223" s="50"/>
+      <c r="F223" s="51"/>
       <c r="G223" s="29"/>
       <c r="H223" s="29"/>
       <c r="I223" s="30"/>
@@ -8097,7 +8089,7 @@
         <v>3762</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D224" s="34" t="n">
         <v>40835</v>
@@ -8124,7 +8116,7 @@
       <c r="A225" s="20"/>
       <c r="B225" s="11"/>
       <c r="C225" s="12"/>
-      <c r="D225" s="50"/>
+      <c r="D225" s="51"/>
       <c r="E225" s="29"/>
       <c r="F225" s="29"/>
       <c r="G225" s="29"/>
@@ -8149,7 +8141,7 @@
         <v>3766</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D226" s="34" t="n">
         <v>40839</v>
@@ -8176,7 +8168,7 @@
       <c r="A227" s="20"/>
       <c r="B227" s="11"/>
       <c r="C227" s="12"/>
-      <c r="D227" s="50"/>
+      <c r="D227" s="51"/>
       <c r="E227" s="29"/>
       <c r="F227" s="29"/>
       <c r="G227" s="29"/>
@@ -8201,7 +8193,7 @@
         <v>3772</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D228" s="34" t="n">
         <v>40852</v>
@@ -8234,9 +8226,9 @@
       <c r="A229" s="20"/>
       <c r="B229" s="11"/>
       <c r="C229" s="12"/>
-      <c r="D229" s="50"/>
+      <c r="D229" s="51"/>
       <c r="E229" s="29"/>
-      <c r="F229" s="50"/>
+      <c r="F229" s="51"/>
       <c r="G229" s="29"/>
       <c r="H229" s="29"/>
       <c r="I229" s="30"/>
@@ -8259,7 +8251,7 @@
         <v>3774</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D230" s="34" t="n">
         <v>40853</v>
@@ -8286,7 +8278,7 @@
       <c r="A231" s="20"/>
       <c r="B231" s="11"/>
       <c r="C231" s="12"/>
-      <c r="D231" s="50"/>
+      <c r="D231" s="51"/>
       <c r="E231" s="29"/>
       <c r="F231" s="29"/>
       <c r="G231" s="29"/>
@@ -8311,7 +8303,7 @@
         <v>3765</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D232" s="34" t="n">
         <v>40837</v>
@@ -8338,7 +8330,7 @@
       <c r="A233" s="20"/>
       <c r="B233" s="11"/>
       <c r="C233" s="12"/>
-      <c r="D233" s="50"/>
+      <c r="D233" s="51"/>
       <c r="E233" s="29"/>
       <c r="F233" s="29"/>
       <c r="G233" s="29"/>
@@ -8363,7 +8355,7 @@
         <v>802</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D234" s="34" t="n">
         <v>40702</v>
@@ -8376,7 +8368,7 @@
         <v>41457</v>
       </c>
       <c r="H234" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I234" s="36" t="n">
         <v>1</v>
@@ -8402,9 +8394,9 @@
       <c r="A235" s="20"/>
       <c r="B235" s="11"/>
       <c r="C235" s="12"/>
-      <c r="D235" s="50"/>
+      <c r="D235" s="51"/>
       <c r="E235" s="29"/>
-      <c r="F235" s="50" t="n">
+      <c r="F235" s="51" t="n">
         <v>41676</v>
       </c>
       <c r="G235" s="29"/>
@@ -8433,7 +8425,7 @@
         <v>807</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D236" s="34" t="n">
         <v>40796</v>
@@ -8446,12 +8438,12 @@
         <v>41759</v>
       </c>
       <c r="H236" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I236" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J236" s="44" t="n">
+      <c r="J236" s="45" t="n">
         <v>51371</v>
       </c>
       <c r="K236" s="16" t="n">
@@ -8472,10 +8464,10 @@
       <c r="A237" s="20"/>
       <c r="B237" s="11"/>
       <c r="C237" s="12"/>
-      <c r="D237" s="50"/>
+      <c r="D237" s="51"/>
       <c r="E237" s="29"/>
-      <c r="F237" s="50"/>
-      <c r="G237" s="50"/>
+      <c r="F237" s="51"/>
+      <c r="G237" s="51"/>
       <c r="H237" s="29"/>
       <c r="I237" s="30"/>
       <c r="J237" s="31"/>
@@ -8497,7 +8489,7 @@
         <v>820</v>
       </c>
       <c r="C238" s="73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D238" s="34" t="n">
         <v>40810</v>
@@ -8510,12 +8502,12 @@
         <v>41744</v>
       </c>
       <c r="H238" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I238" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J238" s="44" t="n">
+      <c r="J238" s="45" t="n">
         <v>51377</v>
       </c>
       <c r="K238" s="16" t="n">
@@ -8536,15 +8528,15 @@
       <c r="A239" s="20"/>
       <c r="B239" s="72"/>
       <c r="C239" s="73"/>
-      <c r="D239" s="53"/>
-      <c r="E239" s="54"/>
-      <c r="F239" s="53"/>
-      <c r="G239" s="53"/>
-      <c r="H239" s="54"/>
-      <c r="I239" s="55"/>
-      <c r="J239" s="56"/>
-      <c r="K239" s="56"/>
-      <c r="L239" s="57"/>
+      <c r="D239" s="54"/>
+      <c r="E239" s="55"/>
+      <c r="F239" s="54"/>
+      <c r="G239" s="54"/>
+      <c r="H239" s="55"/>
+      <c r="I239" s="56"/>
+      <c r="J239" s="57"/>
+      <c r="K239" s="57"/>
+      <c r="L239" s="58"/>
       <c r="M239" s="27"/>
       <c r="N239" s="28"/>
       <c r="O239" s="28"/>
@@ -8584,7 +8576,7 @@
         <v>825</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D241" s="34" t="n">
         <v>40816</v>
@@ -8597,7 +8589,7 @@
         <v>41772</v>
       </c>
       <c r="H241" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I241" s="36" t="n">
         <v>1</v>
@@ -8621,10 +8613,10 @@
       <c r="A242" s="79"/>
       <c r="B242" s="11"/>
       <c r="C242" s="12"/>
-      <c r="D242" s="50"/>
+      <c r="D242" s="51"/>
       <c r="E242" s="29"/>
-      <c r="F242" s="50"/>
-      <c r="G242" s="50"/>
+      <c r="F242" s="51"/>
+      <c r="G242" s="51"/>
       <c r="H242" s="29"/>
       <c r="I242" s="30"/>
       <c r="J242" s="31"/>
@@ -8646,25 +8638,25 @@
         <v>832</v>
       </c>
       <c r="C243" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="58" t="n">
+        <v>11</v>
+      </c>
+      <c r="D243" s="59" t="n">
         <v>40825</v>
       </c>
-      <c r="E243" s="59"/>
-      <c r="F243" s="58" t="n">
+      <c r="E243" s="60"/>
+      <c r="F243" s="59" t="n">
         <v>41698</v>
       </c>
-      <c r="G243" s="58"/>
-      <c r="H243" s="59"/>
-      <c r="I243" s="60" t="n">
+      <c r="G243" s="59"/>
+      <c r="H243" s="60"/>
+      <c r="I243" s="61" t="n">
         <v>0</v>
       </c>
       <c r="J243" s="25"/>
       <c r="K243" s="25" t="n">
         <v>401</v>
       </c>
-      <c r="L243" s="61"/>
+      <c r="L243" s="62"/>
       <c r="M243" s="27"/>
       <c r="N243" s="28"/>
       <c r="O243" s="28"/>
@@ -8679,10 +8671,10 @@
       <c r="A244" s="79"/>
       <c r="B244" s="82"/>
       <c r="C244" s="81"/>
-      <c r="D244" s="50"/>
+      <c r="D244" s="51"/>
       <c r="E244" s="29"/>
-      <c r="F244" s="50"/>
-      <c r="G244" s="50"/>
+      <c r="F244" s="51"/>
+      <c r="G244" s="51"/>
       <c r="H244" s="29"/>
       <c r="I244" s="30"/>
       <c r="J244" s="31"/>
@@ -8704,25 +8696,25 @@
         <v>833</v>
       </c>
       <c r="C245" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="58" t="n">
+        <v>11</v>
+      </c>
+      <c r="D245" s="59" t="n">
         <v>40826</v>
       </c>
-      <c r="E245" s="59"/>
-      <c r="F245" s="58" t="n">
+      <c r="E245" s="60"/>
+      <c r="F245" s="59" t="n">
         <v>41477</v>
       </c>
-      <c r="G245" s="59"/>
-      <c r="H245" s="59"/>
-      <c r="I245" s="60" t="n">
+      <c r="G245" s="60"/>
+      <c r="H245" s="60"/>
+      <c r="I245" s="61" t="n">
         <v>0</v>
       </c>
       <c r="J245" s="25"/>
       <c r="K245" s="25" t="n">
         <v>401</v>
       </c>
-      <c r="L245" s="61"/>
+      <c r="L245" s="62"/>
       <c r="M245" s="27"/>
       <c r="N245" s="28"/>
       <c r="O245" s="28"/>
@@ -8797,7 +8789,7 @@
       <c r="C248" s="81"/>
       <c r="D248" s="29"/>
       <c r="E248" s="29"/>
-      <c r="F248" s="50"/>
+      <c r="F248" s="51"/>
       <c r="G248" s="29"/>
       <c r="H248" s="29"/>
       <c r="I248" s="30"/>
@@ -8820,7 +8812,7 @@
         <v>835</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D249" s="34" t="n">
         <v>40830</v>
@@ -8833,13 +8825,13 @@
         <v>41770</v>
       </c>
       <c r="H249" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I249" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J249" s="44" t="n">
-        <v>51375</v>
+      <c r="J249" s="45" t="n">
+        <v>51374</v>
       </c>
       <c r="K249" s="16" t="n">
         <v>401</v>
@@ -8855,14 +8847,14 @@
       <c r="T249" s="28"/>
       <c r="U249" s="28"/>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="20"/>
       <c r="B250" s="11"/>
       <c r="C250" s="12"/>
-      <c r="D250" s="50"/>
+      <c r="D250" s="51"/>
       <c r="E250" s="29"/>
-      <c r="F250" s="50"/>
-      <c r="G250" s="50"/>
+      <c r="F250" s="51"/>
+      <c r="G250" s="51"/>
       <c r="H250" s="29"/>
       <c r="I250" s="30"/>
       <c r="J250" s="31"/>
@@ -8884,7 +8876,7 @@
         <v>837</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D251" s="34" t="n">
         <v>40831</v>
@@ -8919,10 +8911,10 @@
       <c r="A252" s="20"/>
       <c r="B252" s="11"/>
       <c r="C252" s="12"/>
-      <c r="D252" s="50"/>
+      <c r="D252" s="51"/>
       <c r="E252" s="29"/>
       <c r="F252" s="84"/>
-      <c r="G252" s="50"/>
+      <c r="G252" s="51"/>
       <c r="H252" s="29"/>
       <c r="I252" s="30"/>
       <c r="J252" s="31"/>
@@ -8944,13 +8936,13 @@
         <v>843</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D253" s="34" t="n">
         <v>40846</v>
       </c>
       <c r="E253" s="35"/>
-      <c r="F253" s="46" t="n">
+      <c r="F253" s="47" t="n">
         <v>41461</v>
       </c>
       <c r="G253" s="35"/>
@@ -9022,13 +9014,13 @@
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="20"/>
       <c r="B256" s="85"/>
-      <c r="C256" s="59"/>
-      <c r="D256" s="59"/>
-      <c r="E256" s="59"/>
-      <c r="F256" s="59"/>
-      <c r="G256" s="59"/>
-      <c r="H256" s="59"/>
-      <c r="I256" s="60"/>
+      <c r="C256" s="60"/>
+      <c r="D256" s="60"/>
+      <c r="E256" s="60"/>
+      <c r="F256" s="60"/>
+      <c r="G256" s="60"/>
+      <c r="H256" s="60"/>
+      <c r="I256" s="61"/>
       <c r="J256" s="25"/>
       <c r="K256" s="25"/>
       <c r="L256" s="86"/>
@@ -9388,7 +9380,7 @@
       <c r="U271" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U255"/>
+  <autoFilter ref="A1:U253"/>
   <mergeCells count="183">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -9605,7 +9597,7 @@
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.2908163265306"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8571428571429"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.71428571428571"/>
     <col collapsed="false" hidden="true" max="11" min="10" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8571428571429"/>
@@ -9614,20 +9606,20 @@
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.2857142857143"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.0051020408163"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="91" t="n">
         <v>7784</v>
@@ -9638,10 +9630,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="91" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="91" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="94"/>
@@ -9670,87 +9662,84 @@
         <v>4</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="102" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="F6" s="105" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="105" t="s">
-        <v>21</v>
       </c>
       <c r="G6" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="106" t="s">
+      <c r="L6" s="105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="106"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="107" t="n">
+        <v>41264</v>
+      </c>
+      <c r="D7" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="108"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="110" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="107"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="108" t="n">
-        <v>41264</v>
-      </c>
-      <c r="D7" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="109"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="111" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="28"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="109"/>
+      <c r="F8" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="108"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="108"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28"/>
-      <c r="B10" s="111"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="108"/>
       <c r="L10" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="102" t="s">
+      <c r="O10" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="102" t="s">
+      <c r="P10" s="105" t="s">
         <v>29</v>
-      </c>
-      <c r="O10" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="105" t="s">
-        <v>31</v>
       </c>
       <c r="Q10" s="105"/>
     </row>
@@ -9760,29 +9749,29 @@
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="109"/>
-      <c r="L11" s="107"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="108"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28"/>
-      <c r="B12" s="112"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="109"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="108"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
       <c r="O12" s="28"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28"/>
@@ -9790,14 +9779,14 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="109"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="108"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28"/>
@@ -9805,14 +9794,14 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="108"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="111"/>
+      <c r="M14" s="110"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28"/>
@@ -9820,46 +9809,46 @@
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="108"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L16" s="28"/>
-      <c r="M16" s="112"/>
+      <c r="M16" s="111"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9885,7 +9874,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
